--- a/www/IndicatorsPerCountry/Burundi_GDPperCapita_TerritorialRef_1962_2012_CCode_108.xlsx
+++ b/www/IndicatorsPerCountry/Burundi_GDPperCapita_TerritorialRef_1962_2012_CCode_108.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Burundi_GDPperCapita_TerritorialRef_1962_2012_CCode_108.xlsx
+++ b/www/IndicatorsPerCountry/Burundi_GDPperCapita_TerritorialRef_1962_2012_CCode_108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,115 +36,46 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>684</t>
+    <t>595</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>673</t>
   </si>
   <si>
     <t>695</t>
@@ -153,64 +84,154 @@
     <t>703</t>
   </si>
   <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>704.617689047</t>
-  </si>
-  <si>
-    <t>722.580116366</t>
-  </si>
-  <si>
-    <t>706.024105407</t>
-  </si>
-  <si>
-    <t>685.164692109</t>
-  </si>
-  <si>
-    <t>654.034529503</t>
-  </si>
-  <si>
-    <t>566.874513446</t>
-  </si>
-  <si>
-    <t>517.304378411</t>
-  </si>
-  <si>
-    <t>517.60411768</t>
-  </si>
-  <si>
-    <t>529.433140362</t>
-  </si>
-  <si>
-    <t>508.994744001</t>
-  </si>
-  <si>
-    <t>495.976988863</t>
-  </si>
-  <si>
-    <t>492.341975186</t>
-  </si>
-  <si>
-    <t>498.926233265</t>
-  </si>
-  <si>
-    <t>477.396937351</t>
-  </si>
-  <si>
-    <t>482.556904994</t>
-  </si>
-  <si>
-    <t>469.506092419</t>
-  </si>
-  <si>
-    <t>475.397734605</t>
-  </si>
-  <si>
-    <t>474.941615552</t>
-  </si>
-  <si>
-    <t>479.116051596</t>
+    <t>716</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1149.79761625262</t>
+  </si>
+  <si>
+    <t>1128.3474181201</t>
+  </si>
+  <si>
+    <t>1075.61540247435</t>
+  </si>
+  <si>
+    <t>1057.64136876821</t>
+  </si>
+  <si>
+    <t>934.203052701205</t>
+  </si>
+  <si>
+    <t>824.511593429085</t>
+  </si>
+  <si>
+    <t>800.27201784553</t>
+  </si>
+  <si>
+    <t>808.324093467128</t>
+  </si>
+  <si>
+    <t>772.317169998828</t>
+  </si>
+  <si>
+    <t>739.760916340808</t>
+  </si>
+  <si>
+    <t>730.427815532518</t>
+  </si>
+  <si>
+    <t>737.286025078912</t>
+  </si>
+  <si>
+    <t>703.561533674986</t>
+  </si>
+  <si>
+    <t>709.737212679528</t>
+  </si>
+  <si>
+    <t>691.619745779627</t>
+  </si>
+  <si>
+    <t>703.360986438243</t>
+  </si>
+  <si>
+    <t>700.958723533608</t>
+  </si>
+  <si>
+    <t>708.678590044511</t>
+  </si>
+  <si>
+    <t>709.032596229251</t>
+  </si>
+  <si>
+    <t>717.611506458785</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>694</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1338,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
